--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H2">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N2">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q2">
-        <v>1910.692710789055</v>
+        <v>2228.180527936672</v>
       </c>
       <c r="R2">
-        <v>17196.2343971015</v>
+        <v>20053.62475143004</v>
       </c>
       <c r="S2">
-        <v>0.007952700774927568</v>
+        <v>0.010589701055266</v>
       </c>
       <c r="T2">
-        <v>0.007952700774927568</v>
+        <v>0.010589701055266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H3">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q3">
-        <v>2089.25449890475</v>
+        <v>2253.044414528344</v>
       </c>
       <c r="R3">
-        <v>18803.29049014275</v>
+        <v>20277.3997307551</v>
       </c>
       <c r="S3">
-        <v>0.00869591210488219</v>
+        <v>0.01070786972372738</v>
       </c>
       <c r="T3">
-        <v>0.00869591210488219</v>
+        <v>0.01070786972372737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H4">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N4">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q4">
-        <v>1764.131346183694</v>
+        <v>2565.514707582339</v>
       </c>
       <c r="R4">
-        <v>15877.18211565325</v>
+        <v>23089.63236824105</v>
       </c>
       <c r="S4">
-        <v>0.007342681868543527</v>
+        <v>0.01219292308928987</v>
       </c>
       <c r="T4">
-        <v>0.007342681868543528</v>
+        <v>0.01219292308928986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H5">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N5">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q5">
-        <v>341.3000396611666</v>
+        <v>377.8317357197048</v>
       </c>
       <c r="R5">
-        <v>3071.7003569505</v>
+        <v>3400.485621477343</v>
       </c>
       <c r="S5">
-        <v>0.00142056180701881</v>
+        <v>0.001795691632835982</v>
       </c>
       <c r="T5">
-        <v>0.00142056180701881</v>
+        <v>0.001795691632835981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H6">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N6">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q6">
-        <v>2208.856805974056</v>
+        <v>1566.548279514111</v>
       </c>
       <c r="R6">
-        <v>19879.7112537665</v>
+        <v>14098.934515627</v>
       </c>
       <c r="S6">
-        <v>0.009193721802246028</v>
+        <v>0.007445212701888941</v>
       </c>
       <c r="T6">
-        <v>0.009193721802246028</v>
+        <v>0.00744521270188894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J7">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N7">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q7">
-        <v>4288.470563550994</v>
+        <v>4637.496065143948</v>
       </c>
       <c r="R7">
-        <v>38596.23507195895</v>
+        <v>41737.46458629553</v>
       </c>
       <c r="S7">
-        <v>0.0178495071349918</v>
+        <v>0.02204026844284609</v>
       </c>
       <c r="T7">
-        <v>0.0178495071349918</v>
+        <v>0.02204026844284609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J8">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q8">
         <v>4689.245093011021</v>
@@ -948,10 +948,10 @@
         <v>42203.20583709919</v>
       </c>
       <c r="S8">
-        <v>0.01951761414822877</v>
+        <v>0.02228621204038772</v>
       </c>
       <c r="T8">
-        <v>0.01951761414822877</v>
+        <v>0.02228621204038771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J9">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N9">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q9">
-        <v>3959.519657780074</v>
+        <v>5339.58726068724</v>
       </c>
       <c r="R9">
-        <v>35635.67692002067</v>
+        <v>48056.28534618516</v>
       </c>
       <c r="S9">
-        <v>0.01648034499370892</v>
+        <v>0.02537704290125259</v>
       </c>
       <c r="T9">
-        <v>0.01648034499370892</v>
+        <v>0.02537704290125258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J10">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N10">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q10">
-        <v>766.0337872023687</v>
+        <v>786.3784669679328</v>
       </c>
       <c r="R10">
-        <v>6894.304084821318</v>
+        <v>7077.406202711395</v>
       </c>
       <c r="S10">
-        <v>0.003188392073045152</v>
+        <v>0.003737360046495056</v>
       </c>
       <c r="T10">
-        <v>0.003188392073045152</v>
+        <v>0.003737360046495054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J11">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N11">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q11">
-        <v>4957.687511984655</v>
+        <v>3260.445637603736</v>
       </c>
       <c r="R11">
-        <v>44619.1876078619</v>
+        <v>29344.01073843363</v>
       </c>
       <c r="S11">
-        <v>0.02063492737255851</v>
+        <v>0.01549566750820785</v>
       </c>
       <c r="T11">
-        <v>0.02063492737255851</v>
+        <v>0.01549566750820785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H12">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I12">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J12">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N12">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q12">
-        <v>26091.97869867283</v>
+        <v>20288.81067113161</v>
       </c>
       <c r="R12">
-        <v>234827.8082880554</v>
+        <v>182599.2960401845</v>
       </c>
       <c r="S12">
-        <v>0.1086002464156769</v>
+        <v>0.0964250594062641</v>
       </c>
       <c r="T12">
-        <v>0.1086002464156769</v>
+        <v>0.09642505940626407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H13">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I13">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J13">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q13">
-        <v>28530.37726773818</v>
+        <v>20515.21005003385</v>
       </c>
       <c r="R13">
-        <v>256773.3954096436</v>
+        <v>184636.8904503046</v>
       </c>
       <c r="S13">
-        <v>0.1187493688152594</v>
+        <v>0.09750105020306581</v>
       </c>
       <c r="T13">
-        <v>0.1187493688152594</v>
+        <v>0.09750105020306578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H14">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I14">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J14">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N14">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q14">
-        <v>24090.57052783604</v>
+        <v>23360.42413239374</v>
       </c>
       <c r="R14">
-        <v>216815.1347505244</v>
+        <v>210243.8171915436</v>
       </c>
       <c r="S14">
-        <v>0.1002699690135157</v>
+        <v>0.1110232788522521</v>
       </c>
       <c r="T14">
-        <v>0.1002699690135157</v>
+        <v>0.111023278852252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H15">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I15">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J15">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N15">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q15">
-        <v>4660.714574567979</v>
+        <v>3440.366009598302</v>
       </c>
       <c r="R15">
-        <v>41946.43117111181</v>
+        <v>30963.29408638472</v>
       </c>
       <c r="S15">
-        <v>0.01939886419181251</v>
+        <v>0.01635076112799595</v>
       </c>
       <c r="T15">
-        <v>0.01939886419181251</v>
+        <v>0.01635076112799594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H16">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I16">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J16">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N16">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q16">
-        <v>30163.63877061779</v>
+        <v>14264.28471649946</v>
       </c>
       <c r="R16">
-        <v>271472.7489355601</v>
+        <v>128378.5624484951</v>
       </c>
       <c r="S16">
-        <v>0.1255473431552809</v>
+        <v>0.06779276141274231</v>
       </c>
       <c r="T16">
-        <v>0.1255473431552808</v>
+        <v>0.06779276141274228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H17">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I17">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J17">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N17">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q17">
-        <v>357.0919427429669</v>
+        <v>401.167881124936</v>
       </c>
       <c r="R17">
-        <v>3213.827484686702</v>
+        <v>3610.510930124424</v>
       </c>
       <c r="S17">
-        <v>0.001486290994745889</v>
+        <v>0.001906599524061679</v>
       </c>
       <c r="T17">
-        <v>0.001486290994745889</v>
+        <v>0.001906599524061679</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H18">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I18">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J18">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q18">
-        <v>390.463596624223</v>
+        <v>405.6444451086221</v>
       </c>
       <c r="R18">
-        <v>3514.172369618007</v>
+        <v>3650.800005977598</v>
       </c>
       <c r="S18">
-        <v>0.001625190764543242</v>
+        <v>0.001927874943062806</v>
       </c>
       <c r="T18">
-        <v>0.001625190764543242</v>
+        <v>0.001927874943062806</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H19">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I19">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J19">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N19">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q19">
-        <v>329.7008912554801</v>
+        <v>461.9024743873527</v>
       </c>
       <c r="R19">
-        <v>2967.308021299321</v>
+        <v>4157.122269486174</v>
       </c>
       <c r="S19">
-        <v>0.001372283736979851</v>
+        <v>0.002195248122457673</v>
       </c>
       <c r="T19">
-        <v>0.001372283736979851</v>
+        <v>0.002195248122457672</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H20">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I20">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J20">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N20">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q20">
-        <v>63.78602562969267</v>
+        <v>68.02588701409688</v>
       </c>
       <c r="R20">
-        <v>574.074230667234</v>
+        <v>612.2329831268719</v>
       </c>
       <c r="S20">
-        <v>0.0002654907157966389</v>
+        <v>0.0003233013656059836</v>
       </c>
       <c r="T20">
-        <v>0.0002654907157966388</v>
+        <v>0.0003233013656059835</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H21">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I21">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J21">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N21">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q21">
-        <v>412.8162334175469</v>
+        <v>282.0457526188611</v>
       </c>
       <c r="R21">
-        <v>3715.346100757923</v>
+        <v>2538.41177356975</v>
       </c>
       <c r="S21">
-        <v>0.00171822709160105</v>
+        <v>0.001340457008170271</v>
       </c>
       <c r="T21">
-        <v>0.00171822709160105</v>
+        <v>0.001340457008170271</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H22">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I22">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J22">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N22">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q22">
-        <v>22565.19702430045</v>
+        <v>24588.21614459911</v>
       </c>
       <c r="R22">
-        <v>203086.7732187041</v>
+        <v>221293.945301392</v>
       </c>
       <c r="S22">
-        <v>0.09392104698376046</v>
+        <v>0.1168585108742006</v>
       </c>
       <c r="T22">
-        <v>0.09392104698376044</v>
+        <v>0.1168585108742006</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H23">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I23">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J23">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.929707</v>
       </c>
       <c r="O23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q23">
-        <v>24674.00390208358</v>
+        <v>24862.5918561026</v>
       </c>
       <c r="R23">
-        <v>222066.0351187522</v>
+        <v>223763.3267049234</v>
       </c>
       <c r="S23">
-        <v>0.1026983401593819</v>
+        <v>0.1181625150718939</v>
       </c>
       <c r="T23">
-        <v>0.1026983401593819</v>
+        <v>0.1181625150718939</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H24">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I24">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J24">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N24">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q24">
-        <v>20834.31374317643</v>
+        <v>28310.73576008532</v>
       </c>
       <c r="R24">
-        <v>187508.8236885879</v>
+        <v>254796.6218407679</v>
       </c>
       <c r="S24">
-        <v>0.08671675048261372</v>
+        <v>0.134550241596247</v>
       </c>
       <c r="T24">
-        <v>0.08671675048261372</v>
+        <v>0.134550241596247</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H25">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I25">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J25">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N25">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q25">
-        <v>4030.738483413855</v>
+        <v>4169.414581846302</v>
       </c>
       <c r="R25">
-        <v>36276.6463507247</v>
+        <v>37524.73123661672</v>
       </c>
       <c r="S25">
-        <v>0.01677677257026743</v>
+        <v>0.01981565382321397</v>
       </c>
       <c r="T25">
-        <v>0.01677677257026743</v>
+        <v>0.01981565382321396</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H26">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I26">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J26">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N26">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q26">
-        <v>26086.5018973605</v>
+        <v>17287.0318247111</v>
       </c>
       <c r="R26">
-        <v>234778.5170762445</v>
+        <v>155583.2864223999</v>
       </c>
       <c r="S26">
-        <v>0.1085774508286132</v>
+        <v>0.08215873752656858</v>
       </c>
       <c r="T26">
-        <v>0.1085774508286132</v>
+        <v>0.08215873752656856</v>
       </c>
     </row>
   </sheetData>
